--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints3.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints3.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.168142580742823e-09</v>
+        <v>1.135171480565774e-09</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>2.196807518597749e-09</v>
+        <v>1.176181996971243e-09</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>2.223913388243987e-09</v>
+        <v>1.213947921418022e-09</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>2.249667823346542e-09</v>
+        <v>1.248757729172898e-09</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>2.274278457570423e-09</v>
+        <v>1.280899895502658e-09</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>2.297952924580634e-09</v>
+        <v>1.310662895674088e-09</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>2.320898858042186e-09</v>
+        <v>1.338335204953976e-09</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.343323891620084e-09</v>
+        <v>1.364205298609108e-09</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>2.365435658979335e-09</v>
+        <v>1.388561651906272e-09</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>2.387441793784947e-09</v>
+        <v>1.411692740112254e-09</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>2.409549929701916e-09</v>
+        <v>1.433887038493831e-09</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>2.431967700395271e-09</v>
+        <v>1.455433022317811e-09</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>2.454902739530008e-09</v>
+        <v>1.476619166850969e-09</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>2.478562680771134e-09</v>
+        <v>1.497733947360094e-09</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>2.503155157783657e-09</v>
+        <v>1.51906583911197e-09</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>2.528887804232584e-09</v>
+        <v>1.540903317373387e-09</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>2.555968253782921e-09</v>
+        <v>1.563534857411131e-09</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>2.584604140099676e-09</v>
+        <v>1.587248934491987e-09</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>2.615003096847857e-09</v>
+        <v>1.612334023882745e-09</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>2.647372757692471e-09</v>
+        <v>1.639078600850189e-09</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>2.681920756298524e-09</v>
+        <v>1.667771140661107e-09</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>2.718854726331023e-09</v>
+        <v>1.698700118582287e-09</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>2.758382301454977e-09</v>
+        <v>1.732154009880515e-09</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>2.800711115335392e-09</v>
+        <v>1.768421289822577e-09</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>2.846048801637275e-09</v>
+        <v>1.807790433675262e-09</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>2.894602994025634e-09</v>
+        <v>1.850549916705355e-09</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>2.946581326165475e-09</v>
+        <v>1.896988214179643e-09</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>3.002191431721807e-09</v>
+        <v>1.947393801364914e-09</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>3.061640944359604e-09</v>
+        <v>2.002055153527927e-09</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>3.125137497743936e-09</v>
+        <v>2.061260745935522e-09</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>3.192888725539778e-09</v>
+        <v>2.12529905385446e-09</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>3.265102261412137e-09</v>
+        <v>2.194458552551527e-09</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>3.341985739026024e-09</v>
+        <v>2.269027717293512e-09</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>3.423746792046443e-09</v>
+        <v>2.349295023347202e-09</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>3.510593054138401e-09</v>
+        <v>2.43554894597938e-09</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>3.602732158966907e-09</v>
+        <v>2.528077960456838e-09</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>3.700371740196968e-09</v>
+        <v>2.627170542046359e-09</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>3.80371943149359e-09</v>
+        <v>2.733115166014732e-09</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>3.91298286652178e-09</v>
+        <v>2.846200307628744e-09</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>4.028369678946547e-09</v>
+        <v>2.966714442155181e-09</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>4.150087502432898e-09</v>
+        <v>3.09494604486083e-09</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>4.278343970645837e-09</v>
+        <v>3.231183591012478e-09</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>4.413346717250375e-09</v>
+        <v>3.375715555876913e-09</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>4.555303375911516e-09</v>
+        <v>3.528830414720919e-09</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>4.70442158029427e-09</v>
+        <v>3.690816642811286e-09</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>4.860908964063643e-09</v>
+        <v>3.861962715414799e-09</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>5.024973160884642e-09</v>
+        <v>4.042557107798247e-09</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>5.196824958558233e-09</v>
+        <v>4.232890796357371e-09</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>5.377443723156944e-09</v>
+        <v>4.433864215487285e-09</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>5.569575489594511e-09</v>
+        <v>4.647778711496901e-09</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>5.776213585730665e-09</v>
+        <v>4.877131726095814e-09</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>6.000351339425136e-09</v>
+        <v>5.124420700993628e-09</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>6.244982078537651e-09</v>
+        <v>5.392143077899936e-09</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>6.513099130927949e-09</v>
+        <v>5.682796298524343e-09</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>6.807695824455753e-09</v>
+        <v>5.998877804576446e-09</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>7.131765486980795e-09</v>
+        <v>6.342885037765843e-09</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>7.488301446362809e-09</v>
+        <v>6.717315439802138e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>7.880297030461525e-09</v>
+        <v>7.124666452394927e-09</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>8.310745567136669e-09</v>
+        <v>7.567435517253812e-09</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>8.782640384247979e-09</v>
+        <v>8.048120076088388e-09</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>9.298974809655181e-09</v>
+        <v>8.56921757060826e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>9.862742171218003e-09</v>
+        <v>9.133225442523023e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>1.047693579679619e-08</v>
+        <v>9.742641133542281e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>1.114454901424945e-08</v>
+        <v>1.039996208537563e-08</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>1.186857515143753e-08</v>
+        <v>1.110768573973267e-08</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>1.265200753621976e-08</v>
+        <v>1.186830953832262e-08</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>1.349981710733099e-08</v>
+        <v>1.268640436731509e-08</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>1.44381669240541e-08</v>
+        <v>1.358876018817939e-08</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>1.550608454519166e-08</v>
+        <v>1.46156548661966e-08</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>1.674277840025265e-08</v>
+        <v>1.580755590221709e-08</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>1.8187456918746e-08</v>
+        <v>1.720493079709122e-08</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>1.987932853018069e-08</v>
+        <v>1.884824705166936e-08</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>2.185760166406567e-08</v>
+        <v>2.077797216680188e-08</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>2.41614847499099e-08</v>
+        <v>2.303457364333914e-08</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>2.683018621722232e-08</v>
+        <v>2.56585189821315e-08</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>2.990291449551191e-08</v>
+        <v>2.869027568402934e-08</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>3.341887801428761e-08</v>
+        <v>3.217031124988301e-08</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>3.74172852030584e-08</v>
+        <v>3.61390931805429e-08</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>4.19373444913332e-08</v>
+        <v>4.063708897685935e-08</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>4.7018264308621e-08</v>
+        <v>4.570476613968273e-08</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>5.268992903226247e-08</v>
+        <v>5.137314522448288e-08</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>5.887675761894997e-08</v>
+        <v>5.756639130689979e-08</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>6.543649122475432e-08</v>
+        <v>6.414111283277369e-08</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>7.222581943125761e-08</v>
+        <v>7.095285281345564e-08</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>7.910143182003862e-08</v>
+        <v>7.78571542602935e-08</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>8.592001797268622e-08</v>
+        <v>8.470956018464508e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>9.253826747077913e-08</v>
+        <v>9.136561359785819e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>9.881286989589951e-08</v>
+        <v>9.768085751128389e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.046005148296294e-07</v>
+        <v>1.035108349362733e-07</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>1.09757891853551e-07</v>
+        <v>1.087110888841776e-07</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>1.141416905492463e-07</v>
+        <v>1.131371623663479e-07</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>1.176086004982975e-07</v>
+        <v>1.166445983941352e-07</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>1.200153112822867e-07</v>
+        <v>1.190889399788907e-07</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>1.212185124827959e-07</v>
+        <v>1.203257301319654e-07</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>1.210883391011938e-07</v>
+        <v>1.202240383340581e-07</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>1.196556057688619e-07</v>
+        <v>1.188145822795082e-07</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>1.170569081538465e-07</v>
+        <v>1.162344983518974e-07</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>1.134307025290471e-07</v>
+        <v>1.12622794755466e-07</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>1.089154451673637e-07</v>
+        <v>1.081184796944545e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>1.036495923416962e-07</v>
+        <v>1.028605613731033e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>9.777160032494425e-08</v>
+        <v>9.69880479956528e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>9.141992539000778e-08</v>
+        <v>9.063994776634345e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>8.473302380978993e-08</v>
+        <v>8.395526888941893e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>7.784935185718398e-08</v>
+        <v>7.707301956911315e-08</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>7.090736580509293e-08</v>
+        <v>7.013220800966972e-08</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>6.404552192641664e-08</v>
+        <v>6.327184241532905e-08</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>5.740227649405488e-08</v>
+        <v>5.66309309903315e-08</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>5.111608578090758e-08</v>
+        <v>5.034848193891759e-08</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>4.532540605987449e-08</v>
+        <v>4.456350346532765e-08</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>4.015866352793275e-08</v>
+        <v>3.94047830910356e-08</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>3.560340631593285e-08</v>
+        <v>3.485755309090103e-08</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>3.15432558625789e-08</v>
+        <v>3.080114407367565e-08</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>2.78594088647418e-08</v>
+        <v>2.711241582762493e-08</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>2.444879450784199e-08</v>
+        <v>2.368499259912181e-08</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>2.129914905746276e-08</v>
+        <v>2.050926218764525e-08</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.843071811640616e-08</v>
+        <v>1.761025417360993e-08</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>1.586378857162971e-08</v>
+        <v>1.501304212961217e-08</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>1.361842990665161e-08</v>
+        <v>1.274245686556956e-08</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>1.169795954268788e-08</v>
+        <v>1.080462306820439e-08</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>1.007733765488841e-08</v>
+        <v>9.174000419129424e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>8.728782434926421e-09</v>
+        <v>7.821986775103324e-09</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>7.624512074475581e-09</v>
+        <v>6.719979992885222e-09</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>6.736744765208033e-09</v>
+        <v>5.839377929232717e-09</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>6.037698698797575e-09</v>
+        <v>5.151578440905057e-09</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>5.49959206691741e-09</v>
+        <v>4.627979384660901e-09</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>5.094643061240738e-09</v>
+        <v>4.239978617258904e-09</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>4.795069873440762e-09</v>
+        <v>3.95897399545772e-09</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>4.573090695190684e-09</v>
+        <v>3.756363376016007e-09</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>4.400923718163706e-09</v>
+        <v>3.603544615692422e-09</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>4.250787134033031e-09</v>
+        <v>3.471915571245621e-09</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>4.094899134471861e-09</v>
+        <v>3.332874099434259e-09</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>3.905487720427585e-09</v>
+        <v>3.157828581922968e-09</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>3.668353307329315e-09</v>
+        <v>2.932749985084697e-09</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>3.40980417047269e-09</v>
+        <v>2.687072370341065e-09</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>3.163672566345637e-09</v>
+        <v>2.458302689431322e-09</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>2.963790751436077e-09</v>
+        <v>2.283947894094719e-09</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>2.842931717480103e-09</v>
+        <v>2.200258705678433e-09</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>2.811669722767956e-09</v>
+        <v>2.217159354846306e-09</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>2.859520023936367e-09</v>
+        <v>2.319599241505115e-09</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>2.975166757757108e-09</v>
+        <v>2.491542102598689e-09</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>3.147294061002138e-09</v>
+        <v>2.716951675071128e-09</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>3.364586070443257e-09</v>
+        <v>2.979791695866291e-09</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>3.615726922852307e-09</v>
+        <v>3.264025901928104e-09</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>3.889400755001131e-09</v>
+        <v>3.553618030200493e-09</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>4.174291703661571e-09</v>
+        <v>3.832531817627388e-09</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>4.459085850388194e-09</v>
+        <v>4.084734082129039e-09</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>4.73673418525244e-09</v>
+        <v>4.300948222711634e-09</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>5.013495846515888e-09</v>
+        <v>4.492980759389587e-09</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>5.29821847824766e-09</v>
+        <v>4.676738991669035e-09</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>5.599749724516884e-09</v>
+        <v>4.868130219056127e-09</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>5.926937229392683e-09</v>
+        <v>5.083061741057002e-09</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>6.288628636944186e-09</v>
+        <v>5.337440857177809e-09</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>6.693671591240514e-09</v>
+        <v>5.647174866924687e-09</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>7.150913736350797e-09</v>
+        <v>6.028171069803783e-09</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>7.669202716344157e-09</v>
+        <v>6.496336765321238e-09</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>8.259079177745462e-09</v>
+        <v>7.068161040212914e-09</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>8.942338847405313e-09</v>
+        <v>7.764000702717814e-09</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>9.745368874834275e-09</v>
+        <v>8.605790368041934e-09</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>1.069456995356255e-08</v>
+        <v>9.6154693056891e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>1.181634277711976e-08</v>
+        <v>1.081497678516251e-08</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>1.313708803903719e-08</v>
+        <v>1.222625207596715e-08</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>1.468320643284453e-08</v>
+        <v>1.38712344476063e-08</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>1.648109865207201e-08</v>
+        <v>1.577186316958381e-08</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>1.855716539024981e-08</v>
+        <v>1.795007751140351e-08</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>2.093780734090817e-08</v>
+        <v>2.042781674256922e-08</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>2.364942519757727e-08</v>
+        <v>2.322702013258476e-08</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>2.671841965378732e-08</v>
+        <v>2.636962695095397e-08</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>3.017119140306853e-08</v>
+        <v>2.987757646718069e-08</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>3.403411852027814e-08</v>
+        <v>3.377278667342133e-08</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>3.830228318633131e-08</v>
+        <v>3.804773556736156e-08</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>4.287736270654719e-08</v>
+        <v>4.260703533827828e-08</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>4.76436852463603e-08</v>
+        <v>4.733897786891798e-08</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>5.24855789712051e-08</v>
+        <v>5.213185504202722e-08</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>5.728737204651611e-08</v>
+        <v>5.687395874035246e-08</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>6.193339263772787e-08</v>
+        <v>6.145358084664028e-08</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>6.630796891027484e-08</v>
+        <v>6.575901324363715e-08</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>7.029542902958974e-08</v>
+        <v>6.967854781408785e-08</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>7.378010116111093e-08</v>
+        <v>7.310047644074267e-08</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>7.664760815970375e-08</v>
+        <v>7.591434332045202e-08</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>7.883993968431723e-08</v>
+        <v>7.806421456247645e-08</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>8.037600458607436e-08</v>
+        <v>7.956855789466284e-08</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>8.128024181647875e-08</v>
+        <v>8.045119014444736e-08</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>8.15770903270341e-08</v>
+        <v>8.073592813926623e-08</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>8.1290989069244e-08</v>
+        <v>8.044658870655561e-08</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>8.044637699461212e-08</v>
+        <v>7.960698867375166e-08</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>7.906769305464212e-08</v>
+        <v>7.82409448682906e-08</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>7.717937620083761e-08</v>
+        <v>7.637227411760857e-08</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>7.480588571101884e-08</v>
+        <v>7.402481323079475e-08</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>7.198459774223447e-08</v>
+        <v>7.123509687081637e-08</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>6.878792892118982e-08</v>
+        <v>6.807410600579346e-08</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>6.529418056991769e-08</v>
+        <v>6.461860651520602e-08</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>6.158165401045084e-08</v>
+        <v>6.094536427853412e-08</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>5.772865056482213e-08</v>
+        <v>5.713114517525789e-08</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>5.381347155506435e-08</v>
+        <v>5.325271508485736e-08</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>4.991441830321026e-08</v>
+        <v>4.938683988681261e-08</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>4.610979213129272e-08</v>
+        <v>4.561028546060373e-08</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>4.247789436134618e-08</v>
+        <v>4.199981768571246e-08</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>3.908684381902585e-08</v>
+        <v>3.862232960309764e-08</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>3.594644106669359e-08</v>
+        <v>3.54881694954411e-08</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>3.304576094665456e-08</v>
+        <v>3.25875902110865e-08</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>3.037385343145607e-08</v>
+        <v>2.991082048492889e-08</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>2.791976849364542e-08</v>
+        <v>2.744808905186326e-08</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>2.567255610576993e-08</v>
+        <v>2.518962464678467e-08</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>2.362126624037689e-08</v>
+        <v>2.312565600458811e-08</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>2.17549488700136e-08</v>
+        <v>2.124641186016863e-08</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>2.006265396722736e-08</v>
+        <v>1.954212094842124e-08</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>1.853347314848613e-08</v>
+        <v>1.80030338995236e-08</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>1.715776101228867e-08</v>
+        <v>1.662006538652217e-08</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>1.592733229710129e-08</v>
+        <v>1.538489778581093e-08</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>1.483408307717288e-08</v>
+        <v>1.428925623800777e-08</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>1.386990942675228e-08</v>
+        <v>1.332486588373056e-08</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>1.302670742008835e-08</v>
+        <v>1.24834518635972e-08</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>1.229637313142994e-08</v>
+        <v>1.175673931822557e-08</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>1.16708026350262e-08</v>
+        <v>1.113645338823384e-08</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>1.114189200512536e-08</v>
+        <v>1.061431921423929e-08</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>1.070153731597662e-08</v>
+        <v>1.018206193686013e-08</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>1.034163464182884e-08</v>
+        <v>9.831406696714246e-09</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>1.005408005693087e-08</v>
+        <v>9.554078634419531e-09</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>9.83076963553155e-09</v>
+        <v>9.341802890593863e-09</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>9.663599451879758e-09</v>
+        <v>9.186304605855133e-09</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>9.54446558022434e-09</v>
+        <v>9.079308920821227e-09</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>9.46526409481416e-09</v>
+        <v>9.012540976110027e-09</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>9.417891069898064e-09</v>
+        <v>8.977725912339419e-09</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>9.394242579724914e-09</v>
+        <v>8.966588870127293e-09</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>9.386214698543563e-09</v>
+        <v>8.970854990091531e-09</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>9.385703500602864e-09</v>
+        <v>8.982249412850017e-09</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>9.384605060151685e-09</v>
+        <v>8.992497279020647e-09</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>9.374815451438869e-09</v>
+        <v>8.993323729221295e-09</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>9.34823074871328e-09</v>
+        <v>8.976453904069854e-09</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>9.296747026223767e-09</v>
+        <v>8.933612944184205e-09</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>9.212260358219194e-09</v>
+        <v>8.856525990182237e-09</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>9.086666818948412e-09</v>
+        <v>8.736918182681837e-09</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>8.911862482660274e-09</v>
+        <v>8.566514662300882e-09</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>8.679743423603772e-09</v>
+        <v>8.337040569657397e-09</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>8.382326804573884e-09</v>
+        <v>8.040345576126542e-09</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>8.019602057167482e-09</v>
+        <v>7.676478251350994e-09</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>7.604340239898111e-09</v>
+        <v>7.258632138052936e-09</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>7.150463075853924e-09</v>
+        <v>6.801184153727987e-09</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>6.67189228812307e-09</v>
+        <v>6.318511215871766e-09</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>6.182549599793708e-09</v>
+        <v>5.824990241979896e-09</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>5.696356733953984e-09</v>
+        <v>5.334998149547998e-09</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>5.227235413692053e-09</v>
+        <v>4.86291185607169e-09</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>4.789107362096062e-09</v>
+        <v>4.423108279046592e-09</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>4.395894302254169e-09</v>
+        <v>4.029964335968327e-09</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>4.061517957254522e-09</v>
+        <v>3.697856944332514e-09</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>3.799900050185277e-09</v>
+        <v>3.441163021634774e-09</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>3.62496230413458e-09</v>
+        <v>3.274259485370727e-09</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>3.550626442190587e-09</v>
+        <v>3.211523253035991e-09</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>3.590672826945508e-09</v>
+        <v>3.267184529541608e-09</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>3.748420613260801e-09</v>
+        <v>3.444616237402795e-09</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>4.009720048610264e-09</v>
+        <v>3.72906099663665e-09</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>4.35876190807962e-09</v>
+        <v>4.104039125131405e-09</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>4.77973696675423e-09</v>
+        <v>4.553070940774895e-09</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>5.256835999719559e-09</v>
+        <v>5.059676761455074e-09</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>5.774249782061078e-09</v>
+        <v>5.607376905059893e-09</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>6.316169088864243e-09</v>
+        <v>6.179691689477298e-09</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>6.866784695214522e-09</v>
+        <v>6.760141432595243e-09</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>7.41028737619738e-09</v>
+        <v>7.332246452301675e-09</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>7.930867906898285e-09</v>
+        <v>7.879527066484549e-09</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>8.412717062402697e-09</v>
+        <v>8.385503593031811e-09</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>8.840025617796079e-09</v>
+        <v>8.833696349831412e-09</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>9.196984348163904e-09</v>
+        <v>9.207625654771305e-09</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>9.468189678822532e-09</v>
+        <v>9.491236421806451e-09</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>9.648644555713352e-09</v>
+        <v>9.679366120576547e-09</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>9.744394187488006e-09</v>
+        <v>9.778410210734597e-09</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>9.762016721612463e-09</v>
+        <v>9.795321981579137e-09</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>9.708090305552694e-09</v>
+        <v>9.737054722408706e-09</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>9.589193086774645e-09</v>
+        <v>9.610561722521827e-09</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>9.411903212744303e-09</v>
+        <v>9.422796271217052e-09</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>9.182798830927622e-09</v>
+        <v>9.180711657792911e-09</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>8.908458088790568e-09</v>
+        <v>8.891261171547941e-09</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>8.595459133799107e-09</v>
+        <v>8.561398101780676e-09</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>8.250380113419207e-09</v>
+        <v>8.198075737789655e-09</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>7.879799175116833e-09</v>
+        <v>7.808247368873409e-09</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>7.490294466357947e-09</v>
+        <v>7.39886628433048e-09</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>7.088444134608516e-09</v>
+        <v>6.976885773459402e-09</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>6.680826327334507e-09</v>
+        <v>6.549259125558712e-09</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>6.274019192002274e-09</v>
+        <v>6.122939629927354e-09</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>5.874600876076609e-09</v>
+        <v>5.704880575862637e-09</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>5.48914952702502e-09</v>
+        <v>5.302035252664706e-09</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>5.124243292312322e-09</v>
+        <v>4.921356949630903e-09</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>4.786010930956713e-09</v>
+        <v>4.569321812011473e-09</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>4.475892374432937e-09</v>
+        <v>4.247427561230073e-09</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>4.192538701289391e-09</v>
+        <v>3.954210817725368e-09</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>3.934564055049556e-09</v>
+        <v>3.688168985691359e-09</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>3.700582579236911e-09</v>
+        <v>3.447799469322053e-09</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>3.489208417374934e-09</v>
+        <v>3.231599672811456e-09</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>3.299055712987107e-09</v>
+        <v>3.038067000353572e-09</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>3.12873860959691e-09</v>
+        <v>2.865698856142408e-09</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>2.97687125072782e-09</v>
+        <v>2.712992644371967e-09</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>2.84206777990332e-09</v>
+        <v>2.578445769236257e-09</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>2.722942340646888e-09</v>
+        <v>2.460555634929283e-09</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>2.618109076482004e-09</v>
+        <v>2.35781964564505e-09</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>2.526182130932148e-09</v>
+        <v>2.268735205577563e-09</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>2.4457756475208e-09</v>
+        <v>2.191799718920828e-09</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>2.37550376977144e-09</v>
+        <v>2.125510589868851e-09</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>2.313980641207545e-09</v>
+        <v>2.068365222615635e-09</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>2.259820405352598e-09</v>
+        <v>2.018861021355188e-09</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>2.211637205730077e-09</v>
+        <v>1.975495390281515e-09</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>2.168046834354647e-09</v>
+        <v>1.936767519670972e-09</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>2.128028434858912e-09</v>
+        <v>1.9015702785276e-09</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>2.091378756732431e-09</v>
+        <v>1.869682383110888e-09</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>2.058006257440224e-09</v>
+        <v>1.841003581351795e-09</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>2.02781939444731e-09</v>
+        <v>1.815433621181283e-09</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>2.00072662521871e-09</v>
+        <v>1.792872250530311e-09</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>1.976636407219445e-09</v>
+        <v>1.773219217329839e-09</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>1.955457197914532e-09</v>
+        <v>1.756374269510828e-09</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>1.937097454768991e-09</v>
+        <v>1.742237155004238e-09</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>1.921465635247844e-09</v>
+        <v>1.730707621741029e-09</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>1.908470196816108e-09</v>
+        <v>1.72168541765216e-09</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>1.898019596938805e-09</v>
+        <v>1.715070290668593e-09</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>1.890022293080953e-09</v>
+        <v>1.710761988721287e-09</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>1.884386742707572e-09</v>
+        <v>1.708660259741202e-09</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.881021403283682e-09</v>
+        <v>1.708664851659299e-09</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.879834732274303e-09</v>
+        <v>1.710675512406534e-09</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.880735187144454e-09</v>
+        <v>1.714591989913877e-09</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.883631225359151e-09</v>
+        <v>1.720314032112272e-09</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.88843130438342e-09</v>
+        <v>1.727741386932694e-09</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.895043881682279e-09</v>
+        <v>1.736773802306098e-09</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.903377414720746e-09</v>
+        <v>1.747311026163445e-09</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.913340360963844e-09</v>
+        <v>1.759252806435694e-09</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.924841177876589e-09</v>
+        <v>1.772498891053805e-09</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.937788322924002e-09</v>
+        <v>1.786949027948739e-09</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.952090253571104e-09</v>
+        <v>1.802502965051456e-09</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.967655427282913e-09</v>
+        <v>1.819060450292917e-09</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.984392301524449e-09</v>
+        <v>1.836521231604079e-09</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>2.002209333760733e-09</v>
+        <v>1.854785056915905e-09</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>2.021014981456783e-09</v>
+        <v>1.873751674159354e-09</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>2.04071770207762e-09</v>
+        <v>1.893320831265387e-09</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>2.061225953088263e-09</v>
+        <v>1.913392276164963e-09</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>2.082448191953732e-09</v>
+        <v>1.933865756789042e-09</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>2.104292876139046e-09</v>
+        <v>1.954641021068586e-09</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>2.126668463109226e-09</v>
+        <v>1.975617816934553e-09</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>2.14948341032929e-09</v>
+        <v>1.996695892317904e-09</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>2.172646175264259e-09</v>
+        <v>2.0177749951496e-09</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>2.196065215379153e-09</v>
+        <v>2.0387548733606e-09</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>2.21964898813899e-09</v>
+        <v>2.059535274881864e-09</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>2.243426171858799e-09</v>
+        <v>2.080143305755091e-09</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>2.268545438510255e-09</v>
+        <v>2.101792557362432e-09</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>2.296764909448606e-09</v>
+        <v>2.126342252206405e-09</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>2.329848807542914e-09</v>
+        <v>2.155658076537479e-09</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>2.369561355662241e-09</v>
+        <v>2.191605716606119e-09</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>2.417666776675651e-09</v>
+        <v>2.236050858662792e-09</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>2.475929293452204e-09</v>
+        <v>2.290859188957965e-09</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>2.546113128860965e-09</v>
+        <v>2.357896393742105e-09</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>2.629982505770996e-09</v>
+        <v>2.439028159265678e-09</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>2.729301647051358e-09</v>
+        <v>2.53612017177915e-09</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>2.845834775571115e-09</v>
+        <v>2.651038117532987e-09</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>2.981346114199329e-09</v>
+        <v>2.785647682777659e-09</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>3.137599885805063e-09</v>
+        <v>2.94181455376363e-09</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>3.31636031325738e-09</v>
+        <v>3.121404416741366e-09</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>3.519391619425132e-09</v>
+        <v>3.326282957961124e-09</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>3.74845802717801e-09</v>
+        <v>3.558315863674004e-09</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>4.005323759384187e-09</v>
+        <v>3.819368820129572e-09</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>4.291753038913428e-09</v>
+        <v>4.111307513579008e-09</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>4.609510088634565e-09</v>
+        <v>4.435997630272542e-09</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>4.960359131416656e-09</v>
+        <v>4.795304856460639e-09</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>5.346064390128767e-09</v>
+        <v>5.191094878393769e-09</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>5.768390087639959e-09</v>
+        <v>5.625233382322395e-09</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>6.229100446819294e-09</v>
+        <v>6.099586054496984e-09</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>6.72994592292175e-09</v>
+        <v>6.61600412170122e-09</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>7.269081068570978e-09</v>
+        <v>7.172562206120282e-09</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>7.836276294281643e-09</v>
+        <v>7.758529466363298e-09</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>8.420109402699544e-09</v>
+        <v>8.361922522018306e-09</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>9.0091581964705e-09</v>
+        <v>8.970757992673359e-09</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>9.592000478240315e-09</v>
+        <v>9.573052497916493e-09</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>1.015721405065479e-08</v>
+        <v>1.015682265733576e-08</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>1.069337671635973e-08</v>
+        <v>1.07100850905192e-08</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>1.118906627800096e-08</v>
+        <v>1.122085641705486e-08</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>1.163286053822426e-08</v>
+        <v>1.167715325653078e-08</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>1.201333729967546e-08</v>
+        <v>1.2066992228535e-08</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>1.231907436500035e-08</v>
+        <v>1.237838995265558e-08</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>1.253864953684474e-08</v>
+        <v>1.259936304848055e-08</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>1.266064061785445e-08</v>
+        <v>1.271792813559797e-08</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>1.267383438844796e-08</v>
+        <v>1.272232365102539e-08</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>1.257772596508376e-08</v>
+        <v>1.261215429118818e-08</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>1.238743365361764e-08</v>
+        <v>1.240360783533652e-08</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>1.211931188749423e-08</v>
+        <v>1.211418413835805e-08</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>1.178971510015817e-08</v>
+        <v>1.176138305514041e-08</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.141499772505408e-08</v>
+        <v>1.136270444057125e-08</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>1.101151419562659e-08</v>
+        <v>1.09356481495382e-08</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>1.059561894532034e-08</v>
+        <v>1.049771403692891e-08</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>1.018366640757995e-08</v>
+        <v>1.006640195763102e-08</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>9.792011015850051e-09</v>
+        <v>9.659211766532172e-09</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>9.435217393543686e-09</v>
+        <v>9.291704283620704e-09</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>9.11566396598759e-09</v>
+        <v>8.966238110234891e-09</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>8.830649795531503e-09</v>
+        <v>8.679668994390721e-09</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>8.577457128979991e-09</v>
+        <v>8.428834466568032e-09</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>8.35336821313762e-09</v>
+        <v>8.210572057246663e-09</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>8.15566529480896e-09</v>
+        <v>8.021719296906456e-09</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>7.981630620798733e-09</v>
+        <v>7.859113716027396e-09</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>7.828546437911173e-09</v>
+        <v>7.719592845089008e-09</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>7.69369499295102e-09</v>
+        <v>7.599994214571301e-09</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>7.574358532722849e-09</v>
+        <v>7.497155354954119e-09</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>7.467819304031221e-09</v>
+        <v>7.407913796717297e-09</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>7.371359553680707e-09</v>
+        <v>7.32910707034068e-09</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>7.282261528475867e-09</v>
+        <v>7.2575727063041e-09</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>7.197807475221276e-09</v>
+        <v>7.190148235087404e-09</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>7.115279640721495e-09</v>
+        <v>7.123671187170427e-09</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>7.031960271781093e-09</v>
+        <v>7.054979093033011e-09</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>6.945131615204636e-09</v>
+        <v>6.980909483154995e-09</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>6.85207591779669e-09</v>
+        <v>6.898299888016217e-09</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>6.750133553016281e-09</v>
+        <v>6.804053226809865e-09</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>6.638667976922855e-09</v>
+        <v>6.697348255339081e-09</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>6.519541477297379e-09</v>
+        <v>6.580174752897994e-09</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>6.394770950849677e-09</v>
+        <v>6.454696423790239e-09</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>6.266373294289566e-09</v>
+        <v>6.323076972319448e-09</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>6.136365404326871e-09</v>
+        <v>6.187480102789252e-09</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>6.006764177671411e-09</v>
+        <v>6.050069519503288e-09</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>5.879586511033007e-09</v>
+        <v>5.913008926765187e-09</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>5.756849301121481e-09</v>
+        <v>5.778462028878581e-09</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>5.640569444646654e-09</v>
+        <v>5.648592530147108e-09</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>5.532763838318345e-09</v>
+        <v>5.525564134874396e-09</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>5.435449378846378e-09</v>
+        <v>5.411540547364082e-09</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>5.350233876068386e-09</v>
+        <v>5.308320394643147e-09</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>5.276685356438616e-09</v>
+        <v>5.21588196040031e-09</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>5.213737346047782e-09</v>
+        <v>5.133637287556122e-09</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>5.160323169144683e-09</v>
+        <v>5.060998238903391e-09</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>5.115376149978113e-09</v>
+        <v>4.997376677234923e-09</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>5.077829612796875e-09</v>
+        <v>4.942184465343524e-09</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>5.046616881849765e-09</v>
+        <v>4.894833466022004e-09</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>5.020696336878226e-09</v>
+        <v>4.854744750982147e-09</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>4.999496032113149e-09</v>
+        <v>4.821512016532737e-09</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>4.982861149338901e-09</v>
+        <v>4.794882270430019e-09</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>4.970651370046241e-09</v>
+        <v>4.77460784966576e-09</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>4.962726375725927e-09</v>
+        <v>4.760441091231725e-09</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>4.958945847868722e-09</v>
+        <v>4.752134332119685e-09</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>4.95916946796538e-09</v>
+        <v>4.749439909321404e-09</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>4.963256917506664e-09</v>
+        <v>4.752110159828643e-09</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>4.971067877983335e-09</v>
+        <v>4.759897420633178e-09</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>4.98246203088615e-09</v>
+        <v>4.772554028726771e-09</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>4.997299057705873e-09</v>
+        <v>4.789832321101193e-09</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>5.015438639933259e-09</v>
+        <v>4.811484634748211e-09</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>5.036740459059071e-09</v>
+        <v>4.837263306659589e-09</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>5.061064196574066e-09</v>
+        <v>4.866920673827096e-09</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>5.088269533969005e-09</v>
+        <v>4.900209073242499e-09</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>5.118216152734649e-09</v>
+        <v>4.936880841897563e-09</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>5.150763734361754e-09</v>
+        <v>4.976688316784056e-09</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>5.185771960341083e-09</v>
+        <v>5.019383834893746e-09</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>5.223100512163395e-09</v>
+        <v>5.064719733218398e-09</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>5.262609071319449e-09</v>
+        <v>5.112448348749783e-09</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>5.304157319300003e-09</v>
+        <v>5.162322018479663e-09</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>5.34760493759582e-09</v>
+        <v>5.214093079399807e-09</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>5.392811607697657e-09</v>
+        <v>5.267513868501982e-09</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>5.439637011096274e-09</v>
+        <v>5.322336722777954e-09</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>5.48794082928243e-09</v>
+        <v>5.37831397921949e-09</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>5.537582743746888e-09</v>
+        <v>5.435197974818361e-09</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>5.588422435980404e-09</v>
+        <v>5.49274104656633e-09</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.640319587473741e-09</v>
+        <v>5.550695531455165e-09</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.693153154562469e-09</v>
+        <v>5.608838861121579e-09</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.747080918847031e-09</v>
+        <v>5.6673114802948e-09</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.802470503913435e-09</v>
+        <v>5.726527034872391e-09</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.859694661192316e-09</v>
+        <v>5.786905846885566e-09</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>5.919126142114308e-09</v>
+        <v>5.848868238365548e-09</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>5.981137698110043e-09</v>
+        <v>5.912834531343548e-09</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>6.046102080610157e-09</v>
+        <v>5.979225047850782e-09</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>6.11439204104528e-09</v>
+        <v>6.048460109918466e-09</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>6.186380330846047e-09</v>
+        <v>6.120960039577816e-09</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>6.26243970144309e-09</v>
+        <v>6.197145158860051e-09</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>6.342942904267043e-09</v>
+        <v>6.277435789796381e-09</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>6.428262690748539e-09</v>
+        <v>6.362252254418026e-09</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>6.518771812318214e-09</v>
+        <v>6.452014874756202e-09</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>6.614843020406694e-09</v>
+        <v>6.547143972842121e-09</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>6.71684906644462e-09</v>
+        <v>6.648059870707004e-09</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>6.825162701862515e-09</v>
+        <v>6.755182890381958e-09</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>6.940156678091219e-09</v>
+        <v>6.868933353898405e-09</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>7.062203746561268e-09</v>
+        <v>6.989731583287461e-09</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>7.191676658703293e-09</v>
+        <v>7.117997900580343e-09</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>7.328948165947925e-09</v>
+        <v>7.254152627808266e-09</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>7.474391019725796e-09</v>
+        <v>7.398616087002442e-09</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>7.62837797146755e-09</v>
+        <v>7.551808600194095e-09</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>7.791281772603808e-09</v>
+        <v>7.714150489414436e-09</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>7.963475174565208e-09</v>
+        <v>7.886062076694679e-09</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>8.145330928782384e-09</v>
+        <v>8.067963684066045e-09</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>8.337221786685972e-09</v>
+        <v>8.260275633559747e-09</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>8.539520499706596e-09</v>
+        <v>8.463418247206999e-09</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>8.752599819274899e-09</v>
+        <v>8.677811847039021e-09</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>8.976832496821508e-09</v>
+        <v>8.903876755087026e-09</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>9.212591283777057e-09</v>
+        <v>9.14203329338223e-09</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>9.460248931572185e-09</v>
+        <v>9.392701783955854e-09</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>9.720178191637519e-09</v>
+        <v>9.656302548839105e-09</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>9.992751815403697e-09</v>
+        <v>9.933255910063206e-09</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>1.027834255430135e-08</v>
+        <v>1.022398218965937e-08</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>1.05773231597611e-08</v>
+        <v>1.052890170965881e-08</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>1.08900663832136e-08</v>
+        <v>1.084843479209275e-08</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>1.121694497608948e-08</v>
+        <v>1.11830017589924e-08</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>1.155832891128144e-08</v>
+        <v>1.153301897314665e-08</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>1.19144152225786e-08</v>
+        <v>1.189865636996454e-08</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>1.228512924507359e-08</v>
+        <v>1.227969673124735e-08</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>1.267037251088733e-08</v>
+        <v>1.267588892105408e-08</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>1.307004655214074e-08</v>
+        <v>1.30869818034437e-08</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>1.348405290095474e-08</v>
+        <v>1.351272424247519e-08</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>1.391229308945025e-08</v>
+        <v>1.395286510220754e-08</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>1.435466864974819e-08</v>
+        <v>1.440715324669973e-08</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>1.481108111396948e-08</v>
+        <v>1.487533754001075e-08</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>1.528143201423505e-08</v>
+        <v>1.535716684619956e-08</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>1.576562288266582e-08</v>
+        <v>1.585239002932518e-08</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>1.626355525138269e-08</v>
+        <v>1.636075595344655e-08</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>1.677513065250661e-08</v>
+        <v>1.688201348262268e-08</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>1.730025061815848e-08</v>
+        <v>1.741591148091255e-08</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>1.783881668045923e-08</v>
+        <v>1.796219881237513e-08</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>1.839073037152925e-08</v>
+        <v>1.852062434106887e-08</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>1.89558932234905e-08</v>
+        <v>1.909093693105383e-08</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>1.95342067684634e-08</v>
+        <v>1.967288544638845e-08</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>2.012557253856887e-08</v>
+        <v>2.026621875113173e-08</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>2.072991659728752e-08</v>
+        <v>2.08707162541947e-08</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>2.134787072625638e-08</v>
+        <v>2.148703607879311e-08</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>2.198086132691639e-08</v>
+        <v>2.211682575699123e-08</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>2.26303571908981e-08</v>
+        <v>2.276178560235776e-08</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>2.329782710983205e-08</v>
+        <v>2.342361592846136e-08</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>2.398473987534882e-08</v>
+        <v>2.410401704887075e-08</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>2.469256427907893e-08</v>
+        <v>2.480468927715461e-08</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>2.542276911265296e-08</v>
+        <v>2.552733292688163e-08</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>2.617682316770144e-08</v>
+        <v>2.627364831162049e-08</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>2.695619523585493e-08</v>
+        <v>2.704533574493988e-08</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>2.776235410874398e-08</v>
+        <v>2.78440955404085e-08</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>2.859676857799914e-08</v>
+        <v>2.867162801159504e-08</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>2.946090743525096e-08</v>
+        <v>2.952963347206817e-08</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>3.035623947212999e-08</v>
+        <v>3.041981223539659e-08</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>3.128423348026679e-08</v>
+        <v>3.134386461514898e-08</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>3.224626308526758e-08</v>
+        <v>3.230339173892304e-08</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>3.324024413877515e-08</v>
+        <v>3.329639089911854e-08</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>3.425973580846587e-08</v>
+        <v>3.431631867171187e-08</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>3.529801929908897e-08</v>
+        <v>3.535634192820737e-08</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>3.634837581539372e-08</v>
+        <v>3.640962754010941e-08</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>3.740408656212936e-08</v>
+        <v>3.746934237892232e-08</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>3.845843274404516e-08</v>
+        <v>3.85286533161505e-08</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>3.950469556589034e-08</v>
+        <v>3.958072722329828e-08</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>4.05361562324142e-08</v>
+        <v>4.061873097187001e-08</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>4.154609594836593e-08</v>
+        <v>4.163583143337007e-08</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>4.25278851973329e-08</v>
+        <v>4.262528782319061e-08</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>4.347809186840153e-08</v>
+        <v>4.358366653299452e-08</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>4.439728585381857e-08</v>
+        <v>4.451167335118075e-08</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>4.52862897898804e-08</v>
+        <v>4.54102754872047e-08</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>4.614592631288343e-08</v>
+        <v>4.628044015052182e-08</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>4.697701805912406e-08</v>
+        <v>4.712313455058752e-08</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>4.778038766489869e-08</v>
+        <v>4.793932589685724e-08</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>4.855685776650373e-08</v>
+        <v>4.87299813987864e-08</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>4.930725100023486e-08</v>
+        <v>4.949606826582972e-08</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>5.003239000238993e-08</v>
+        <v>5.02385537074441e-08</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>5.07330974092646e-08</v>
+        <v>5.09584049330842e-08</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>5.141019585715528e-08</v>
+        <v>5.165658915220547e-08</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>5.206450798235837e-08</v>
+        <v>5.233407357426333e-08</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>5.269599412151622e-08</v>
+        <v>5.299078369470442e-08</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>5.329986346315376e-08</v>
+        <v>5.362090531335023e-08</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>5.386969763821025e-08</v>
+        <v>5.421665803471047e-08</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>5.439907683751278e-08</v>
+        <v>5.477025972354587e-08</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>5.488158125188853e-08</v>
+        <v>5.527392824461714e-08</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>5.531079107216463e-08</v>
+        <v>5.571988146268502e-08</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>5.568028648916823e-08</v>
+        <v>5.610033724251024e-08</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>5.598364769372647e-08</v>
+        <v>5.640751344885351e-08</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>5.621445487666649e-08</v>
+        <v>5.663362794647556e-08</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>5.636628822881543e-08</v>
+        <v>5.677089860013712e-08</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>5.643272783124442e-08</v>
+        <v>5.6811543383655e-08</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>5.640660138759019e-08</v>
+        <v>5.67485278504044e-08</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>5.627818773771708e-08</v>
+        <v>5.657735016354659e-08</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>5.603722649022249e-08</v>
+        <v>5.629404427885709e-08</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>5.56734572537037e-08</v>
+        <v>5.58946441521113e-08</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>5.517661963675813e-08</v>
+        <v>5.537518373908473e-08</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>5.453719162353435e-08</v>
+        <v>5.47322351533008e-08</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>5.376745782927106e-08</v>
+        <v>5.397826405657096e-08</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>5.290458284874223e-08</v>
+        <v>5.314386963873826e-08</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>5.198708767360128e-08</v>
+        <v>5.226063968615166e-08</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>5.105349329550171e-08</v>
+        <v>5.136016198516018e-08</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>5.01373118762678e-08</v>
+        <v>5.046986211032159e-08</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>4.924246211514551e-08</v>
+        <v>4.959257421203125e-08</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>4.836203307705798e-08</v>
+        <v>4.872213328654862e-08</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>4.748909764651841e-08</v>
+        <v>4.78523608846189e-08</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>4.661672870804e-08</v>
+        <v>4.697707855698728e-08</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>4.573799914613595e-08</v>
+        <v>4.609010785439894e-08</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>4.484598184531949e-08</v>
+        <v>4.518527032759912e-08</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>4.393374969010382e-08</v>
+        <v>4.425638752733296e-08</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>4.299437556500214e-08</v>
+        <v>4.329728100434571e-08</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>4.202093235452859e-08</v>
+        <v>4.230177230938349e-08</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>4.100649294319353e-08</v>
+        <v>4.126368299318858e-08</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>3.994548227543897e-08</v>
+        <v>4.017817339485758e-08</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>3.884399460576591e-08</v>
+        <v>3.905195861969335e-08</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>3.771409109401537e-08</v>
+        <v>3.789766210826743e-08</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>3.656788098676531e-08</v>
+        <v>3.67279549158773e-08</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>3.541747353059802e-08</v>
+        <v>3.555550809782488e-08</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>3.427497797209466e-08</v>
+        <v>3.43929927094109e-08</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>3.315250355783642e-08</v>
+        <v>3.325307980593619e-08</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>3.206215953440452e-08</v>
+        <v>3.214844044270152e-08</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>3.101605514838011e-08</v>
+        <v>3.109174567500769e-08</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>3.002610044095623e-08</v>
+        <v>3.009545306689668e-08</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>2.90968616332881e-08</v>
+        <v>2.916414970562008e-08</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>2.822359038676805e-08</v>
+        <v>2.829244013173722e-08</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>2.740093801403965e-08</v>
+        <v>2.747428548348153e-08</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>2.662355582774647e-08</v>
+        <v>2.670364689908646e-08</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>2.58860951405321e-08</v>
+        <v>2.597448551678543e-08</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>2.518320726504011e-08</v>
+        <v>2.528076247481189e-08</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>2.450954351391407e-08</v>
+        <v>2.461643891139927e-08</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>2.385975519979754e-08</v>
+        <v>2.397547596478099e-08</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>2.322849363533411e-08</v>
+        <v>2.33518347731905e-08</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>2.261041013316735e-08</v>
+        <v>2.273947647486122e-08</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>2.200015600594083e-08</v>
+        <v>2.213236220802661e-08</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>2.139238256629812e-08</v>
+        <v>2.152445311092007e-08</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>2.078174112688281e-08</v>
+        <v>2.090971032177507e-08</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>2.016288939326225e-08</v>
+        <v>2.028210207870619e-08</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>1.953647646803138e-08</v>
+        <v>1.964225057165396e-08</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>1.892025948041022e-08</v>
+        <v>1.900977789733789e-08</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>1.833502933438665e-08</v>
+        <v>1.840767541528266e-08</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>1.780157693394849e-08</v>
+        <v>1.78589344850129e-08</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>1.734069318308362e-08</v>
+        <v>1.738654646605327e-08</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.697316898577989e-08</v>
+        <v>1.701350271792846e-08</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>1.671979524602517e-08</v>
+        <v>1.67627946001631e-08</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>1.658473094319369e-08</v>
+        <v>1.66391247841714e-08</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>1.648727904883439e-08</v>
+        <v>1.655388713330902e-08</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>1.633982624584297e-08</v>
+        <v>1.64107713626057e-08</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>1.614610309458982e-08</v>
+        <v>1.621346008796294e-08</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>1.59358114131074e-08</v>
+        <v>1.599406632379972e-08</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>1.573865483122949e-08</v>
+        <v>1.578470506789046e-08</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>1.558433697879118e-08</v>
+        <v>1.561749131801094e-08</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>1.550256148562629e-08</v>
+        <v>1.552454007193561e-08</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>1.552303198156948e-08</v>
+        <v>1.553796632743979e-08</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>1.567430094548701e-08</v>
+        <v>1.568862911264127e-08</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>1.595611007390468e-08</v>
+        <v>1.59759532915704e-08</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>1.633803048650705e-08</v>
+        <v>1.636644595282767e-08</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>1.678821001177776e-08</v>
+        <v>1.68250612952439e-08</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>1.727479647820045e-08</v>
+        <v>1.731675351764988e-08</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>1.776734605267359e-08</v>
+        <v>1.780835992208493e-08</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>1.824547611749526e-08</v>
+        <v>1.82801707611017e-08</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>1.869318112403148e-08</v>
+        <v>1.871832890954802e-08</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>1.909447348651792e-08</v>
+        <v>1.910900126060217e-08</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>1.943336561919027e-08</v>
+        <v>1.943835470744248e-08</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>1.969394813683955e-08</v>
+        <v>1.969262078531324e-08</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>1.986646213503698e-08</v>
+        <v>1.98631151338202e-08</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>1.995163119758578e-08</v>
+        <v>1.994981841666124e-08</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>1.99512014904289e-08</v>
+        <v>1.995355658337489e-08</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>1.98669191795093e-08</v>
+        <v>1.987515558349969e-08</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>1.970053043076994e-08</v>
+        <v>1.971544136657417e-08</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>1.945402637058949e-08</v>
+        <v>1.947551818283669e-08</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>1.913308554406556e-08</v>
+        <v>1.916067957622531e-08</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>1.87462364163216e-08</v>
+        <v>1.877945689818489e-08</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>1.830208142020933e-08</v>
+        <v>1.834046553524331e-08</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>1.780922298858049e-08</v>
+        <v>1.78523208739284e-08</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>1.72762635542868e-08</v>
+        <v>1.732363830076805e-08</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>1.671180555018001e-08</v>
+        <v>1.676303320229013e-08</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>1.612445140911186e-08</v>
+        <v>1.61791209650225e-08</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>1.552280356393405e-08</v>
+        <v>1.558051697549301e-08</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>1.491544670471665e-08</v>
+        <v>1.49758188484536e-08</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>1.430892238667964e-08</v>
+        <v>1.437157772503128e-08</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>1.370585870203344e-08</v>
+        <v>1.377042488818458e-08</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>1.310844163981151e-08</v>
+        <v>1.317454879523521e-08</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>1.251885718904732e-08</v>
+        <v>1.258613790350487e-08</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>1.193929133877432e-08</v>
+        <v>1.200738067031524e-08</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>1.137193007802598e-08</v>
+        <v>1.144046555298805e-08</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>1.081895939583627e-08</v>
+        <v>1.088758100884551e-08</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>1.028256528123709e-08</v>
+        <v>1.035091549520774e-08</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>9.764933723263969e-09</v>
+        <v>9.832657469398509e-09</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>9.268250710948364e-09</v>
+        <v>9.334995388737516e-09</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>8.794702233325654e-09</v>
+        <v>8.860117710548387e-09</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>8.346474279427897e-09</v>
+        <v>8.410212892151405e-09</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>7.925752838289021e-09</v>
+        <v>7.987469390868741e-09</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>7.534721950336399e-09</v>
+        <v>7.594073746597065e-09</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>7.174638889467102e-09</v>
+        <v>7.231300562565622e-09</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>6.844354144432991e-09</v>
+        <v>6.898056169571749e-09</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>6.542332556792773e-09</v>
+        <v>6.592867422239842e-09</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>6.267038968105163e-09</v>
+        <v>6.314261175194301e-09</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>6.016938219928866e-09</v>
+        <v>6.060764283059527e-09</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>5.790495153822596e-09</v>
+        <v>5.830903600459922e-09</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>5.586174611345065e-09</v>
+        <v>5.623205982019887e-09</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>5.402441434054981e-09</v>
+        <v>5.43619828236382e-09</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>5.237760463511056e-09</v>
+        <v>5.268407356116123e-09</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>5.090596541271998e-09</v>
+        <v>5.118360057901197e-09</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>4.959414508896522e-09</v>
+        <v>4.984583242343443e-09</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>4.842679207943335e-09</v>
+        <v>4.86560376406726e-09</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>4.73885547997115e-09</v>
+        <v>4.759948477697049e-09</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>4.646512644969659e-09</v>
+        <v>4.666222584865199e-09</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>4.565029558938903e-09</v>
+        <v>4.583638347663129e-09</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>4.49416307342751e-09</v>
+        <v>4.511691482096966e-09</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>4.433672173040078e-09</v>
+        <v>4.449879303723597e-09</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>4.383315842381204e-09</v>
+        <v>4.397699128099905e-09</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>4.34285306605549e-09</v>
+        <v>4.354648270782777e-09</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>4.312042828667533e-09</v>
+        <v>4.320224047329096e-09</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>4.290644114821929e-09</v>
+        <v>4.293923773295749e-09</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>4.27841590912328e-09</v>
+        <v>4.275244764239619e-09</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>4.273913644890206e-09</v>
+        <v>4.262769854626921e-09</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>4.269360872125813e-09</v>
+        <v>4.250270793905836e-09</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>4.254906218416187e-09</v>
+        <v>4.229942766124235e-09</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>4.220697107796126e-09</v>
+        <v>4.193980040848892e-09</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>4.156882699214026e-09</v>
+        <v>4.134578488927503e-09</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>4.069217546720365e-09</v>
+        <v>4.058337362132048e-09</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>4.011840841388115e-09</v>
+        <v>4.015967402695474e-09</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>3.984894045854951e-09</v>
+        <v>4.001564806630416e-09</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>3.944545286340189e-09</v>
+        <v>3.96415547552631e-09</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>3.869852197235112e-09</v>
+        <v>3.880671208502189e-09</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>3.778691546503643e-09</v>
+        <v>3.775106787771744e-09</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>3.692530375413274e-09</v>
+        <v>3.675809719482404e-09</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>3.631613643326951e-09</v>
+        <v>3.609480582345474e-09</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>3.596022225450721e-09</v>
+        <v>3.575646012555677e-09</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>3.5692942591954e-09</v>
+        <v>3.551538977901308e-09</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>3.535568311564233e-09</v>
+        <v>3.515346521045453e-09</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>3.491083309875837e-09</v>
+        <v>3.463172306035994e-09</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>3.439625524651574e-09</v>
+        <v>3.402295109653022e-09</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>3.385093997616129e-09</v>
+        <v>3.340160047627287e-09</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>3.330140675500462e-09</v>
+        <v>3.281938812733395e-09</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>3.274009646752561e-09</v>
+        <v>3.226590657401979e-09</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>3.215368204111696e-09</v>
+        <v>3.172023349925092e-09</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>3.152883640317137e-09</v>
+        <v>3.116144658594789e-09</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>3.085223248108153e-09</v>
+        <v>3.056862351703122e-09</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>3.011054320224014e-09</v>
+        <v>2.992084197542145e-09</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>2.929044149403992e-09</v>
+        <v>2.919717964403913e-09</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>2.837860028387353e-09</v>
+        <v>2.837671420580478e-09</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>2.73616924991337e-09</v>
+        <v>2.743852334363895e-09</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>2.624051387309863e-09</v>
+        <v>2.63765319840623e-09</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>2.512528865768124e-09</v>
+        <v>2.529970677307694e-09</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>2.417733641420959e-09</v>
+        <v>2.437073063033914e-09</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>2.355826503850503e-09</v>
+        <v>2.375258960028751e-09</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>2.342968242638893e-09</v>
+        <v>2.360826972736071e-09</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>2.395316819560492e-09</v>
+        <v>2.410072908878733e-09</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>2.52332121165473e-09</v>
+        <v>2.533646351691011e-09</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>2.719748122011366e-09</v>
+        <v>2.724708995960432e-09</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>2.973951233631686e-09</v>
+        <v>2.973047036539191e-09</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>3.275284229516975e-09</v>
+        <v>3.26844666827948e-09</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>3.613100792668519e-09</v>
+        <v>3.600694086033493e-09</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>3.976754606087605e-09</v>
+        <v>3.959575484653428e-09</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>4.355599352775519e-09</v>
+        <v>4.334877058991475e-09</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>4.738988715733547e-09</v>
+        <v>4.71638500389983e-09</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>5.116220357743055e-09</v>
+        <v>5.093779757159794e-09</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>5.475964012517416e-09</v>
+        <v>5.455556328522312e-09</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>5.806495097081973e-09</v>
+        <v>5.789465321915293e-09</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>6.096082925084313e-09</v>
+        <v>6.083245819080308e-09</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>6.332996810170011e-09</v>
+        <v>6.324636901756889e-09</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>6.505574580895671e-09</v>
+        <v>6.501447893601503e-09</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>6.60985393947555e-09</v>
+        <v>6.609382077088558e-09</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>6.65651939661734e-09</v>
+        <v>6.659158734720764e-09</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>6.657896153142275e-09</v>
+        <v>6.663179194806402e-09</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>6.626309409871727e-09</v>
+        <v>6.633844785653888e-09</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>6.57402367198987e-09</v>
+        <v>6.583495947580255e-09</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>6.508811739520981e-09</v>
+        <v>6.519967180809894e-09</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>6.430945827139171e-09</v>
+        <v>6.443568629661259e-09</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>6.339985625603347e-09</v>
+        <v>6.353895656435243e-09</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>6.235490825672412e-09</v>
+        <v>6.250543623432738e-09</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>6.117021118105275e-09</v>
+        <v>6.133107892954638e-09</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>5.984136193660837e-09</v>
+        <v>6.001183827301832e-09</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>5.836587025385112e-09</v>
+        <v>5.854554863837189e-09</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>5.675707891382498e-09</v>
+        <v>5.69456119774725e-09</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>5.503614978373e-09</v>
+        <v>5.523311822592751e-09</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>5.322430003975473e-09</v>
+        <v>5.342921170096838e-09</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>5.134274685808768e-09</v>
+        <v>5.155503671982659e-09</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>4.941270741491742e-09</v>
+        <v>4.963173759973362e-09</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>4.745539888643248e-09</v>
+        <v>4.768045865792094e-09</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>4.54920384488214e-09</v>
+        <v>4.572234421162002e-09</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>4.35438432782727e-09</v>
+        <v>4.377853857806234e-09</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>4.163203055097497e-09</v>
+        <v>4.187018607447937e-09</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>3.977781744311671e-09</v>
+        <v>4.001843101810261e-09</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>3.800242113088646e-09</v>
+        <v>3.82444177261635e-09</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>3.632608477357168e-09</v>
+        <v>3.656832208415927e-09</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>3.475550374867667e-09</v>
+        <v>3.499684988092568e-09</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>3.328744554523046e-09</v>
+        <v>3.352683594490458e-09</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>3.191844961853709e-09</v>
+        <v>3.21548883783943e-09</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>3.064505542390063e-09</v>
+        <v>3.087761528369314e-09</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>2.94638024166251e-09</v>
+        <v>2.969162476309941e-09</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>2.837123005201456e-09</v>
+        <v>2.859352491891143e-09</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>2.736387778537307e-09</v>
+        <v>2.757992385342751e-09</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>2.643828507200468e-09</v>
+        <v>2.664742966894597e-09</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>2.559099136721343e-09</v>
+        <v>2.57926504677651e-09</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>2.481853612630407e-09</v>
+        <v>2.501219435218395e-09</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>2.411745880457853e-09</v>
+        <v>2.430266942449868e-09</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>2.348429885734357e-09</v>
+        <v>2.366068378701031e-09</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>2.29155957399008e-09</v>
+        <v>2.308284554201472e-09</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>2.240788890755646e-09</v>
+        <v>2.256576279181241e-09</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>2.195771781561304e-09</v>
+        <v>2.210604363870015e-09</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>2.156162191937512e-09</v>
+        <v>2.170029618497676e-09</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>2.121614067414673e-09</v>
+        <v>2.134512853294053e-09</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>2.091781353523193e-09</v>
+        <v>2.103714878488981e-09</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>2.066317995793478e-09</v>
+        <v>2.077296504312289e-09</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>2.044877939755931e-09</v>
+        <v>2.054918540993809e-09</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>2.027115130940959e-09</v>
+        <v>2.036241798763372e-09</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>2.012683514878965e-09</v>
+        <v>2.020927087850809e-09</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>2.001237037100356e-09</v>
+        <v>2.008635218485951e-09</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>1.992429643135535e-09</v>
+        <v>1.99902700089863e-09</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>1.985915278514907e-09</v>
+        <v>1.991763245318676e-09</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>1.981347888768879e-09</v>
+        <v>1.986504761975922e-09</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>1.978381419427854e-09</v>
+        <v>1.982912361100197e-09</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>1.976669816022239e-09</v>
+        <v>1.980646852921334e-09</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>1.975867024082435e-09</v>
+        <v>1.979369047669163e-09</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>1.975626989138851e-09</v>
+        <v>1.978739755573516e-09</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>1.975603656721891e-09</v>
+        <v>1.978419786864224e-09</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>1.975450972361959e-09</v>
+        <v>1.978069951771118e-09</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>1.97482288158946e-09</v>
+        <v>1.977351060524029e-09</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>1.9733733299348e-09</v>
+        <v>1.975923923352788e-09</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>1.970756262928383e-09</v>
+        <v>1.973449350487228e-09</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>1.966625626100614e-09</v>
+        <v>1.969588152157178e-09</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>1.960637479843356e-09</v>
+        <v>1.96400318938196e-09</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>1.952717081367812e-09</v>
+        <v>1.956618364397505e-09</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>1.943319817977877e-09</v>
+        <v>1.947871648679856e-09</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>1.932963018272994e-09</v>
+        <v>1.938261078423456e-09</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>1.922164010852607e-09</v>
+        <v>1.928284689822746e-09</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>1.911440124316159e-09</v>
+        <v>1.918440519072171e-09</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>1.901308687263092e-09</v>
+        <v>1.909226602366172e-09</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>1.89228702829285e-09</v>
+        <v>1.901140975899193e-09</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>1.884892476004874e-09</v>
+        <v>1.894681675865676e-09</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>1.879642358998609e-09</v>
+        <v>1.890346738460063e-09</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>1.877054005873498e-09</v>
+        <v>1.888634199876798e-09</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>1.877644745228981e-09</v>
+        <v>1.890042096310322e-09</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>1.881931905664499e-09</v>
+        <v>1.895068463955073e-09</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>1.89043281577951e-09</v>
+        <v>1.904211339005512e-09</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>1.903664804173425e-09</v>
+        <v>1.917968757656048e-09</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>1.922145199445717e-09</v>
+        <v>1.936838756101153e-09</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>1.94639133019582e-09</v>
+        <v>1.961319370535262e-09</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>1.976920525023176e-09</v>
+        <v>1.991908637152817e-09</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>2.014250112527228e-09</v>
+        <v>2.02910459214826e-09</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>2.058897421307419e-09</v>
+        <v>2.073405271716034e-09</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>2.111379779963193e-09</v>
+        <v>2.125308712050582e-09</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>2.17221451709399e-09</v>
+        <v>2.185312949346346e-09</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>2.241918961299256e-09</v>
+        <v>2.253916019797768e-09</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>2.321010441178433e-09</v>
+        <v>2.331615959599294e-09</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>2.410006285330964e-09</v>
+        <v>2.418910804945363e-09</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>2.509423822356291e-09</v>
+        <v>2.516298592030419e-09</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>2.619780380853857e-09</v>
+        <v>2.624277357048905e-09</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>2.741593289423106e-09</v>
+        <v>2.743345136195263e-09</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>2.87528911391131e-09</v>
+        <v>2.873922594272026e-09</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>3.020295276897172e-09</v>
+        <v>3.015578668874713e-09</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>3.175420212435923e-09</v>
+        <v>3.167354636168444e-09</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>3.339463130397902e-09</v>
+        <v>3.328283909092426e-09</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>3.511223240653455e-09</v>
+        <v>3.497399900585878e-09</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>3.689499753072923e-09</v>
+        <v>3.673736023588009e-09</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>3.873091877526647e-09</v>
+        <v>3.856325691038033e-09</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>4.060798823884971e-09</v>
+        <v>4.044202315875163e-09</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>4.251419802018236e-09</v>
+        <v>4.236399311038612e-09</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>4.443754021796785e-09</v>
+        <v>4.431950089467591e-09</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>4.636524094417379e-09</v>
+        <v>4.629761697491446e-09</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>4.827844308083093e-09</v>
+        <v>4.827737616876008e-09</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>5.015538858644287e-09</v>
+        <v>5.023302757299002e-09</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>5.197430155393335e-09</v>
+        <v>5.213879081111979e-09</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>5.371340607622612e-09</v>
+        <v>5.396888550666487e-09</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>5.535092624624495e-09</v>
+        <v>5.569753128314076e-09</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>5.686508615691357e-09</v>
+        <v>5.729894776406292e-09</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>5.823410990115572e-09</v>
+        <v>5.874735457294686e-09</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>5.943622157189518e-09</v>
+        <v>6.001697133330804e-09</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>6.044964526205478e-09</v>
+        <v>6.108201766866106e-09</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>6.125260506456096e-09</v>
+        <v>6.191671320252415e-09</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>6.182332507233435e-09</v>
+        <v>6.249527755840962e-09</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>6.214002937830091e-09</v>
+        <v>6.279193035983514e-09</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>6.218094207538317e-09</v>
+        <v>6.278089123031511e-09</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>6.192974588898108e-09</v>
+        <v>6.24433746989767e-09</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>6.140392384612541e-09</v>
+        <v>6.180390832629664e-09</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>6.063388022955719e-09</v>
+        <v>6.090357747628114e-09</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>5.965004527034225e-09</v>
+        <v>5.978350076413701e-09</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>5.84828491995465e-09</v>
+        <v>5.848479680507105e-09</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>5.716272224823581e-09</v>
+        <v>5.704858421429009e-09</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>5.57200946474761e-09</v>
+        <v>5.551598160700096e-09</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>5.418539662833323e-09</v>
+        <v>5.392810759841047e-09</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>5.258905842187308e-09</v>
+        <v>5.232608080372544e-09</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>5.096127031459582e-09</v>
+        <v>5.075014474155128e-09</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>4.932701779440262e-09</v>
+        <v>4.922156062284575e-09</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>4.770625020164648e-09</v>
+        <v>4.774322243449436e-09</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>4.611871067379809e-09</v>
+        <v>4.631727212534e-09</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>4.458414234832805e-09</v>
+        <v>4.494585164422552e-09</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>4.312228836270701e-09</v>
+        <v>4.363110293999377e-09</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>4.175289185440563e-09</v>
+        <v>4.237516796148759e-09</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>4.049569596089453e-09</v>
+        <v>4.118018865754984e-09</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>3.937044381964439e-09</v>
+        <v>4.004830697702339e-09</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>3.83968408565002e-09</v>
+        <v>3.8981663421133e-09</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>3.758229837482659e-09</v>
+        <v>3.798192656252584e-09</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>3.690430632069448e-09</v>
+        <v>3.704961639707094e-09</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>3.633588946461126e-09</v>
+        <v>3.618508151808658e-09</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>3.585007257708426e-09</v>
+        <v>3.538867051889106e-09</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>3.541988042862083e-09</v>
+        <v>3.466073199280262e-09</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>3.501833778972829e-09</v>
+        <v>3.400161453313954e-09</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>3.4618469430914e-09</v>
+        <v>3.341166673322012e-09</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>3.419736831215701e-09</v>
+        <v>3.289133664361005e-09</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>3.376339222575824e-09</v>
+        <v>3.244183666328749e-09</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>3.333939501375886e-09</v>
+        <v>3.206473358406699e-09</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>3.294830990992667e-09</v>
+        <v>3.176159613869594e-09</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>3.261307014802953e-09</v>
+        <v>3.153399305992173e-09</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>3.235660896183531e-09</v>
+        <v>3.138349308049176e-09</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>3.220151305894675e-09</v>
+        <v>3.131170590542438e-09</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>3.215927579434176e-09</v>
+        <v>3.132155288628841e-09</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>3.222822189674956e-09</v>
+        <v>3.141751239567061e-09</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>3.240591068381596e-09</v>
+        <v>3.160415330619375e-09</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>3.268990147318583e-09</v>
+        <v>3.188604449047954e-09</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>3.307775358250536e-09</v>
+        <v>3.226775482115105e-09</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>3.356702632941986e-09</v>
+        <v>3.275385317083045e-09</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>3.415527903157488e-09</v>
+        <v>3.334890841214016e-09</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>3.483996075722524e-09</v>
+        <v>3.405716150323099e-09</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>3.561589230422297e-09</v>
+        <v>3.487503614453602e-09</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>3.64752137403764e-09</v>
+        <v>3.579098274819944e-09</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>3.740994439089032e-09</v>
+        <v>3.679309260195847e-09</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>3.841210358096951e-09</v>
+        <v>3.786945699355041e-09</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>3.947371063581876e-09</v>
+        <v>3.900816721071251e-09</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>4.058678488064285e-09</v>
+        <v>4.019731454118203e-09</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>4.174334564064658e-09</v>
+        <v>4.142499027269626e-09</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>4.293541224103471e-09</v>
+        <v>4.267928569299245e-09</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>4.41551407489367e-09</v>
+        <v>4.394892070250988e-09</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>4.5395688064216e-09</v>
+        <v>4.522721610350173e-09</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>4.66506558660758e-09</v>
+        <v>4.650953738161455e-09</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>4.791364785164021e-09</v>
+        <v>4.7791259299026e-09</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>4.917826771803323e-09</v>
+        <v>4.906775661791356e-09</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>5.043811916237897e-09</v>
+        <v>5.033440410045491e-09</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>5.16868058818015e-09</v>
+        <v>5.158657650882757e-09</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>5.291793157342486e-09</v>
+        <v>5.281964860520914e-09</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>5.412509993437314e-09</v>
+        <v>5.40289951517772e-09</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>5.530180726823615e-09</v>
+        <v>5.520987665242459e-09</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>5.643106508762995e-09</v>
+        <v>5.634639861702303e-09</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>5.747674896838192e-09</v>
+        <v>5.7402307421819e-09</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>5.840069798670696e-09</v>
+        <v>5.833918276743738e-09</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>5.916475121882002e-09</v>
+        <v>5.911860435450305e-09</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>5.973074774093592e-09</v>
+        <v>5.970215188364073e-09</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>6.006052662926959e-09</v>
+        <v>6.005140505547536e-09</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>6.011592696003593e-09</v>
+        <v>6.012794357063173e-09</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>5.985878780944982e-09</v>
+        <v>5.989334712973468e-09</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>5.925096727717473e-09</v>
+        <v>5.930921431687594e-09</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>5.82711238759726e-09</v>
+        <v>5.835382050552876e-09</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>5.694553746403978e-09</v>
+        <v>5.705271199894728e-09</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>5.530886743392696e-09</v>
+        <v>5.543975297499531e-09</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>5.339577317819543e-09</v>
+        <v>5.354880761154707e-09</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>5.124092849671136e-09</v>
+        <v>5.141375447123694e-09</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>4.892897681036083e-09</v>
+        <v>4.911836354404289e-09</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>4.670640734944601e-09</v>
+        <v>4.690799736910718e-09</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>4.485241723356291e-09</v>
+        <v>4.506067519276657e-09</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>4.364620358230537e-09</v>
+        <v>4.385441626135568e-09</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>4.336696139752194e-09</v>
+        <v>4.356723773150522e-09</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>4.415216740408043e-09</v>
+        <v>4.433731499609873e-09</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>4.561375454272668e-09</v>
+        <v>4.578423846897733e-09</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>4.724185902230953e-09</v>
+        <v>4.740741456111398e-09</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>4.853639329975068e-09</v>
+        <v>4.87156420235126e-09</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>4.925121179047735e-09</v>
+        <v>4.946168940056086e-09</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>4.94114061918556e-09</v>
+        <v>4.965891117534683e-09</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>4.905530822214315e-09</v>
+        <v>4.933338192329916e-09</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>4.822124959959778e-09</v>
+        <v>4.851117621984656e-09</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>4.694756739682632e-09</v>
+        <v>4.721837514002525e-09</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>4.5309302749681e-09</v>
+        <v>4.552561456908535e-09</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>4.350584084372189e-09</v>
+        <v>4.365447077996419e-09</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>4.176287278175556e-09</v>
+        <v>4.185845261782094e-09</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>4.030381081320911e-09</v>
+        <v>4.03884775402607e-09</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>3.919914483113626e-09</v>
+        <v>3.932156805639866e-09</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>3.827252437987689e-09</v>
+        <v>3.845405331734261e-09</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>3.732517588378292e-09</v>
+        <v>3.755676412727607e-09</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>3.616225993695162e-09</v>
+        <v>3.640550803494461e-09</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>3.468502240196719e-09</v>
+        <v>3.4897640938146e-09</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>3.289401212370915e-09</v>
+        <v>3.305613750792003e-09</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>3.079435623011293e-09</v>
+        <v>3.090976373906088e-09</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>2.840500174485486e-09</v>
+        <v>2.849583132575025e-09</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>2.579537628940493e-09</v>
+        <v>2.588286724929897e-09</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>2.304643039474044e-09</v>
+        <v>2.314652382123489e-09</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>2.023911459183871e-09</v>
+        <v>2.036245335308588e-09</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>1.745437941167703e-09</v>
+        <v>1.76063081563798e-09</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.477317538523271e-09</v>
+        <v>1.495374054264453e-09</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>1.227645304348307e-09</v>
+        <v>1.248040282340791e-09</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>1.004516291740541e-09</v>
+        <v>1.026194731019783e-09</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>8.160255537978666e-10</v>
+        <v>8.374026314543786e-10</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>6.701537506489484e-10</v>
+        <v>6.891281963565481e-10</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>5.669029640523513e-10</v>
+        <v>5.817898946923606e-10</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>4.932208036424213e-10</v>
+        <v>5.042780182186679e-10</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>4.349365526301937e-10</v>
+        <v>4.444800715832368e-10</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>3.836323784820883e-10</v>
+        <v>3.943810080990544e-10</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>3.40051621299659e-10</v>
+        <v>3.524907575815484e-10</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>3.055366951589633e-10</v>
+        <v>3.179405619537363e-10</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>2.798197476829975e-10</v>
+        <v>2.901508415917314e-10</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>2.619122215040738e-10</v>
+        <v>2.686714441188885e-10</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>2.508221815300074e-10</v>
+        <v>2.530528237445985e-10</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>2.455576926686139e-10</v>
+        <v>2.428454346782523e-10</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>2.451268198277086e-10</v>
+        <v>2.375997311292407e-10</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>2.485382204843967e-10</v>
+        <v>2.368662702817953e-10</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>2.550014331050474e-10</v>
+        <v>2.402305177911676e-10</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>2.642184212359074e-10</v>
+        <v>2.473635114052859e-10</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>2.759652195844568e-10</v>
+        <v>2.579491607271739e-10</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>2.900178628581756e-10</v>
+        <v>2.71671375359856e-10</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>3.06152385764544e-10</v>
+        <v>2.882140649063559e-10</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>3.241448230110421e-10</v>
+        <v>3.072611389696979e-10</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>3.4377120930515e-10</v>
+        <v>3.28496507152906e-10</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>3.648075793543478e-10</v>
+        <v>3.516040790590043e-10</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>3.870299678661156e-10</v>
+        <v>3.762677642910167e-10</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>4.102144095479333e-10</v>
+        <v>4.021714724519671e-10</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>4.341369391072813e-10</v>
+        <v>4.2899911314488e-10</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>4.585735912516395e-10</v>
+        <v>4.56434595972779e-10</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>4.833004006884882e-10</v>
+        <v>4.841618305386883e-10</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>5.080934021253073e-10</v>
+        <v>5.118647264456321e-10</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>5.32728630269577e-10</v>
+        <v>5.392271932966342e-10</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>5.569821198287772e-10</v>
+        <v>5.659331406947187e-10</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>5.806299055103882e-10</v>
+        <v>5.916664782429097e-10</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>6.034480220218902e-10</v>
+        <v>6.161111155442312e-10</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>6.252125040707631e-10</v>
+        <v>6.389509622017073e-10</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>6.4570243386643e-10</v>
+        <v>6.598780052545307e-10</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>6.647540201709426e-10</v>
+        <v>6.787356462745216e-10</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>6.82254207010183e-10</v>
+        <v>6.955017611874958e-10</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>6.980917020106948e-10</v>
+        <v>7.101589003614955e-10</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>7.12155212799009e-10</v>
+        <v>7.226896141645532e-10</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>7.243334470017076e-10</v>
+        <v>7.330764529647444e-10</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>7.345151122452871e-10</v>
+        <v>7.413019671300716e-10</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>7.425889161563308e-10</v>
+        <v>7.473487070286103e-10</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>7.48443566361351e-10</v>
+        <v>7.511992230283791e-10</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>7.519677704869118e-10</v>
+        <v>7.528360654974355e-10</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>7.530502361595502e-10</v>
+        <v>7.522417848038174e-10</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>7.515796710058097e-10</v>
+        <v>7.49398931315568e-10</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>7.474447826522342e-10</v>
+        <v>7.442900554007297e-10</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>7.405342787253675e-10</v>
+        <v>7.368977074273454e-10</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>7.30736866851753e-10</v>
+        <v>7.272044377634581e-10</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>7.17941254657935e-10</v>
+        <v>7.151927967771106e-10</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>7.020361497704562e-10</v>
+        <v>7.008453348363453e-10</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>6.829102598158613e-10</v>
+        <v>6.841446023092057e-10</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>6.604522924206934e-10</v>
+        <v>6.650731495637342e-10</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>6.345509552114965e-10</v>
+        <v>6.436135269679734e-10</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>6.054187378670757e-10</v>
+        <v>6.199174542400028e-10</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>5.773603519142547e-10</v>
+        <v>5.962747514200089e-10</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>5.574853706519563e-10</v>
+        <v>5.764407201572215e-10</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>5.529581054601336e-10</v>
+        <v>5.641992616032989e-10</v>
       </c>
     </row>
   </sheetData>
